--- a/DATA/collate_cultivar_data_50_percent/data/cleaned_data_for_overlay.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/data/cleaned_data_for_overlay.xlsx
@@ -1700,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2800,22 +2800,6 @@
       </c>
       <c r="B137">
         <v>0.3888889</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
-        <v>43217</v>
-      </c>
-      <c r="B138">
-        <v>0.4466019</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
-        <v>43218</v>
-      </c>
-      <c r="B139">
-        <v>0.2291169</v>
       </c>
     </row>
   </sheetData>
